--- a/Dokumentation/Requirements.xlsx
+++ b/Dokumentation/Requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dhbwstg-my.sharepoint.com/personal/inf18239_lehre_dhbw-stuttgart_de/Documents/Studium/Semester 6/Graphische Programmierung/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fschi\ETAS\ASCET-DEVELOPER-7.6.0\workspace\Projekt_Grafische_Programmierung\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8D617B4-B266-4A03-A4A7-CBFC200E58A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF2506C-4DF3-4C9A-97D2-2B1B77A5B223}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6B7B1A69-CDF4-409E-9134-E005D8200390}"/>
+    <workbookView xWindow="14530" yWindow="3740" windowWidth="17550" windowHeight="14570" xr2:uid="{6B7B1A69-CDF4-409E-9134-E005D8200390}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -218,18 +218,14 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -246,9 +242,6 @@
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -269,7 +262,7 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{F02853FA-07E1-4C8F-9D8C-CDD8216F63F3}" name="ID"/>
     <tableColumn id="4" xr3:uid="{2BAFE160-EA47-4D8D-844D-5F754EF68EB0}" name="needed"/>
-    <tableColumn id="2" xr3:uid="{C79306AC-BCE9-4845-95FA-41EB7C1C29DA}" name="Description" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{C79306AC-BCE9-4845-95FA-41EB7C1C29DA}" name="Description" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{48AA0351-DFFF-4382-B555-AD149AAC7B13}" name="state"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -576,16 +569,16 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -599,7 +592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -616,7 +609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -633,7 +626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -650,7 +643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -664,7 +657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -675,10 +668,10 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -689,10 +682,10 @@
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -706,7 +699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -717,10 +710,10 @@
         <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -731,10 +724,10 @@
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -745,10 +738,10 @@
         <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -762,7 +755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -773,10 +766,10 @@
         <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -787,10 +780,10 @@
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -804,7 +797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -818,7 +811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -832,7 +825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -846,7 +839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -863,13 +856,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D19">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$D2="done"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="2">
       <formula>$D2="requested"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$D2="in progress"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Dokumentation/Requirements.xlsx
+++ b/Dokumentation/Requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fschi\ETAS\ASCET-DEVELOPER-7.6.0\workspace\Projekt_Grafische_Programmierung\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF2506C-4DF3-4C9A-97D2-2B1B77A5B223}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90664C63-34C6-4BEE-9C51-940A59F723A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14530" yWindow="3740" windowWidth="17550" windowHeight="14570" xr2:uid="{6B7B1A69-CDF4-409E-9134-E005D8200390}"/>
   </bookViews>
@@ -569,7 +569,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -738,7 +738,7 @@
         <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="29" x14ac:dyDescent="0.35">

--- a/Dokumentation/Requirements.xlsx
+++ b/Dokumentation/Requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fschi\ETAS\ASCET-DEVELOPER-7.6.0\workspace\Projekt_Grafische_Programmierung\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saurm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90664C63-34C6-4BEE-9C51-940A59F723A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCD2682-D7AA-4D07-B602-BE0ADC63D0A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14530" yWindow="3740" windowWidth="17550" windowHeight="14570" xr2:uid="{6B7B1A69-CDF4-409E-9134-E005D8200390}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6B7B1A69-CDF4-409E-9134-E005D8200390}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -568,17 +568,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859F6971-6FCA-44DA-9931-57CD1DF53CBF}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.54296875" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -592,7 +592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -609,7 +609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -626,7 +626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -643,7 +643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -657,7 +657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -671,7 +671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -685,7 +685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -699,7 +699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -713,7 +713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -727,7 +727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -741,7 +741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -752,10 +752,10 @@
         <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -769,7 +769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -783,7 +783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -797,7 +797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -808,10 +808,10 @@
         <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -825,7 +825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -839,7 +839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>

--- a/Dokumentation/Requirements.xlsx
+++ b/Dokumentation/Requirements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saurm\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dhbwstg-my.sharepoint.com/personal/inf18239_lehre_dhbw-stuttgart_de/Documents/Studium/Semester 6/Graphische Programmierung/Projekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCD2682-D7AA-4D07-B602-BE0ADC63D0A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{FBCD2682-D7AA-4D07-B602-BE0ADC63D0A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{893CC2F8-6E0C-4D58-AFAB-9BA80AA98EDF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6B7B1A69-CDF4-409E-9134-E005D8200390}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6B7B1A69-CDF4-409E-9134-E005D8200390}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -189,15 +189,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -205,22 +217,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="12">
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -257,13 +560,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6BEC3364-D5CC-4A2C-AF74-E38471C964C1}" name="Tabelle1" displayName="Tabelle1" ref="A1:D19" totalsRowShown="0">
-  <autoFilter ref="A1:D19" xr:uid="{C2267BC1-54A4-4E5D-9EE9-5E87582F742B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6BEC3364-D5CC-4A2C-AF74-E38471C964C1}" name="Tabelle1" displayName="Tabelle1" ref="A1:D19" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F02853FA-07E1-4C8F-9D8C-CDD8216F63F3}" name="ID"/>
-    <tableColumn id="4" xr3:uid="{2BAFE160-EA47-4D8D-844D-5F754EF68EB0}" name="needed"/>
-    <tableColumn id="2" xr3:uid="{C79306AC-BCE9-4845-95FA-41EB7C1C29DA}" name="Description" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{48AA0351-DFFF-4382-B555-AD149AAC7B13}" name="state"/>
+    <tableColumn id="1" xr3:uid="{F02853FA-07E1-4C8F-9D8C-CDD8216F63F3}" name="ID" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{2BAFE160-EA47-4D8D-844D-5F754EF68EB0}" name="needed" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{C79306AC-BCE9-4845-95FA-41EB7C1C29DA}" name="Description" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{48AA0351-DFFF-4382-B555-AD149AAC7B13}" name="state" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -568,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859F6971-6FCA-44DA-9931-57CD1DF53CBF}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,30 +881,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="M2" t="s">
@@ -610,16 +912,16 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="M3" t="s">
@@ -627,16 +929,16 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="M4" t="s">
@@ -644,225 +946,225 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="9" spans="1:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D19">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>$D2="done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>$D2="requested"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>$D2="in progress"</formula>
     </cfRule>
   </conditionalFormatting>
